--- a/inst/extdata/geometry.xlsx
+++ b/inst/extdata/geometry.xlsx
@@ -5,17 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenny/rrr/readxl/tests/testthat/sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenny/rrr/readxl/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14980" yWindow="460" windowWidth="11380" windowHeight="11000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="9780" yWindow="460" windowWidth="15000" windowHeight="11120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="warning_B6" sheetId="2" r:id="rId2"/>
-    <sheet name="warning_AT6" sheetId="3" r:id="rId3"/>
-    <sheet name="warning_AKE6" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,45 +27,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
-  <si>
-    <t>var1</t>
-  </si>
-  <si>
-    <t>var2</t>
-  </si>
-  <si>
-    <t>var3</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>gg</t>
-  </si>
-  <si>
-    <t>bb</t>
-  </si>
-  <si>
-    <t>ee</t>
-  </si>
-  <si>
-    <t>hh</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>ff</t>
-  </si>
-  <si>
-    <t>ii</t>
-  </si>
-  <si>
-    <t>wtf</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>D6</t>
   </si>
 </sst>
 </file>
@@ -385,8 +379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
+      <selection activeCell="C5" sqref="A5:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -407,137 +401,32 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B6"/>
-  <sheetViews>
-    <sheetView topLeftCell="AKC1" workbookViewId="0">
-      <selection activeCell="AKD2" sqref="AKD2:AKF7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>2345</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="AT3:AT6"/>
-  <sheetViews>
-    <sheetView topLeftCell="AKC1" workbookViewId="0">
-      <selection activeCell="AKD2" sqref="AKD2:AKF7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="3" spans="46:46" x14ac:dyDescent="0.2">
-      <c r="AT3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="46:46" x14ac:dyDescent="0.2">
-      <c r="AT4">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="5" spans="46:46" x14ac:dyDescent="0.2">
-      <c r="AT5">
-        <v>2345</v>
-      </c>
-    </row>
-    <row r="6" spans="46:46" x14ac:dyDescent="0.2">
-      <c r="AT6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="AKE3:AKE6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AS2" sqref="AS2:AU9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="3" spans="967:967" x14ac:dyDescent="0.2">
-      <c r="AKE3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="967:967" x14ac:dyDescent="0.2">
-      <c r="AKE4">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="5" spans="967:967" x14ac:dyDescent="0.2">
-      <c r="AKE5">
-        <v>2345</v>
-      </c>
-    </row>
-    <row r="6" spans="967:967" x14ac:dyDescent="0.2">
-      <c r="AKE6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
